--- a/nba.xlsx
+++ b/nba.xlsx
@@ -566,7 +566,7 @@
         <v>6796117</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -648,7 +648,7 @@
         <v>1148640</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -686,7 +686,7 @@
         <v>5000000</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -724,7 +724,7 @@
         <v>12000000</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -766,7 +766,7 @@
         <v>1170960</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -808,7 +808,7 @@
         <v>2165160</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -850,7 +850,7 @@
         <v>1824360</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,7 @@
         <v>3431040</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1018,7 +1018,7 @@
         <v>3425510</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1060,7 +1060,7 @@
         <v>1749840</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1102,7 +1102,7 @@
         <v>2616975</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1140,7 +1140,7 @@
         <v>3425510</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1182,7 +1182,7 @@
         <v>845059</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1224,7 +1224,7 @@
         <v>1500000</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1266,7 +1266,7 @@
         <v>1335480</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1308,7 +1308,7 @@
         <v>6300000</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1388,7 @@
         <v>134215</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1514,7 +1514,7 @@
         <v>1140240</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1598,7 +1598,7 @@
         <v>981348</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1640,7 +1640,7 @@
         <v>947276</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1682,7 +1682,7 @@
         <v>947276</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1724,7 +1724,7 @@
         <v>11235955</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1766,7 +1766,7 @@
         <v>8000000</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1808,7 +1808,7 @@
         <v>1635476</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1846,7 +1846,7 @@
         <v>30888</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1888,7 +1888,7 @@
         <v>22875000</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1926,7 +1926,7 @@
         <v>7402812</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1968,7 +1968,7 @@
         <v>845059</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2010,7 +2010,7 @@
         <v>845059</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2052,7 +2052,7 @@
         <v>1572360</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2094,7 +2094,7 @@
         <v>12650000</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2174,7 +2174,7 @@
         <v>4131720</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2212,7 +2212,7 @@
         <v>2814000</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2254,7 +2254,7 @@
         <v>1636842</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2334,7 +2334,7 @@
         <v>4000000</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2376,7 +2376,7 @@
         <v>167406</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2458,7 +2458,7 @@
         <v>947276</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2542,7 +2542,7 @@
         <v>4626960</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2584,7 +2584,7 @@
         <v>845059</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2626,7 +2626,7 @@
         <v>1074169</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2668,7 +2668,7 @@
         <v>6500000</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>525093</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2794,7 +2794,7 @@
         <v>3457800</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2836,7 +2836,7 @@
         <v>4582680</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -2878,7 +2878,7 @@
         <v>947276</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2920,7 +2920,7 @@
         <v>2869440</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -2962,7 +2962,7 @@
         <v>947276</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3042,7 +3042,7 @@
         <v>2814000</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3122,7 +3122,7 @@
         <v>13600000</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3164,7 +3164,7 @@
         <v>10050000</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3206,7 +3206,7 @@
         <v>2500000</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -3248,7 +3248,7 @@
         <v>7000000</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3290,7 +3290,7 @@
         <v>12000000</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3328,7 +3328,7 @@
         <v>1842000</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3370,7 +3370,7 @@
         <v>6268675</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3454,7 +3454,7 @@
         <v>3553917</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3534,7 +3534,7 @@
         <v>245177</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3572,7 +3572,7 @@
         <v>4660482</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3614,7 +3614,7 @@
         <v>1509360</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3652,7 +3652,7 @@
         <v>2500000</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3694,7 +3694,7 @@
         <v>3873398</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3736,7 +3736,7 @@
         <v>13800000</v>
       </c>
       <c r="J80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3820,7 +3820,7 @@
         <v>11370786</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -3862,7 +3862,7 @@
         <v>2008748</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -3946,7 +3946,7 @@
         <v>11710456</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -3984,7 +3984,7 @@
         <v>5543725</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -4026,7 +4026,7 @@
         <v>1131960</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4068,7 +4068,7 @@
         <v>845059</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4152,7 +4152,7 @@
         <v>3815000</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -4194,7 +4194,7 @@
         <v>15501000</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4232,7 +4232,7 @@
         <v>289755</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4274,7 +4274,7 @@
         <v>1100602</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4316,7 +4316,7 @@
         <v>111444</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95">
@@ -4400,7 +4400,7 @@
         <v>525093</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4484,7 +4484,7 @@
         <v>18907726</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -4568,7 +4568,7 @@
         <v>19689000</v>
       </c>
       <c r="J100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -4610,7 +4610,7 @@
         <v>947276</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4652,7 +4652,7 @@
         <v>21468695</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4694,7 +4694,7 @@
         <v>3376000</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -4732,7 +4732,7 @@
         <v>947726</v>
       </c>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4774,7 +4774,7 @@
         <v>7085000</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4816,7 +4816,7 @@
         <v>3110796</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -4858,7 +4858,7 @@
         <v>1159680</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -4900,7 +4900,7 @@
         <v>3000000</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -4942,7 +4942,7 @@
         <v>845059</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110">
@@ -4984,7 +4984,7 @@
         <v>700000</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5064,7 +5064,7 @@
         <v>845059</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -5106,7 +5106,7 @@
         <v>15592217</v>
       </c>
       <c r="J113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -5144,7 +5144,7 @@
         <v>525093</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -5186,7 +5186,7 @@
         <v>1724250</v>
       </c>
       <c r="J115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -5228,7 +5228,7 @@
         <v>1155600</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -5312,7 +5312,7 @@
         <v>5103120</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -5354,7 +5354,7 @@
         <v>981348</v>
       </c>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -5392,7 +5392,7 @@
         <v>7000000</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5434,7 +5434,7 @@
         <v>947276</v>
       </c>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -5518,7 +5518,7 @@
         <v>13500000</v>
       </c>
       <c r="J123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -5560,7 +5560,7 @@
         <v>2127840</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -5602,7 +5602,7 @@
         <v>206192</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -5640,7 +5640,7 @@
         <v>13000000</v>
       </c>
       <c r="J126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5682,7 +5682,7 @@
         <v>1160160</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5724,7 +5724,7 @@
         <v>981348</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -5766,7 +5766,7 @@
         <v>13500000</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -5808,7 +5808,7 @@
         <v>3807120</v>
       </c>
       <c r="J130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -5934,7 +5934,7 @@
         <v>947276</v>
       </c>
       <c r="J133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5972,7 +5972,7 @@
         <v>5500000</v>
       </c>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -6014,7 +6014,7 @@
         <v>5500000</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -6056,7 +6056,7 @@
         <v>2041080</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -6098,7 +6098,7 @@
         <v>83397</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -6140,7 +6140,7 @@
         <v>981348</v>
       </c>
       <c r="J138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -6182,7 +6182,7 @@
         <v>1015421</v>
       </c>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6262,7 +6262,7 @@
         <v>1449187</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -6300,7 +6300,7 @@
         <v>2836186</v>
       </c>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -6342,7 +6342,7 @@
         <v>3398280</v>
       </c>
       <c r="J143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -6384,7 +6384,7 @@
         <v>5013559</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
@@ -6468,7 +6468,7 @@
         <v>947276</v>
       </c>
       <c r="J146" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -6510,7 +6510,7 @@
         <v>525093</v>
       </c>
       <c r="J147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6552,7 +6552,7 @@
         <v>12403101</v>
       </c>
       <c r="J148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149">
@@ -6594,7 +6594,7 @@
         <v>7700000</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -6678,7 +6678,7 @@
         <v>845059</v>
       </c>
       <c r="J151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -6720,7 +6720,7 @@
         <v>9500000</v>
       </c>
       <c r="J152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6762,7 +6762,7 @@
         <v>845059</v>
       </c>
       <c r="J153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -6846,7 +6846,7 @@
         <v>16407500</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156">
@@ -6964,7 +6964,7 @@
         <v>7448760</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -7006,7 +7006,7 @@
         <v>8500000</v>
       </c>
       <c r="J159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -7048,7 +7048,7 @@
         <v>947276</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -7090,7 +7090,7 @@
         <v>2380440</v>
       </c>
       <c r="J161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -7128,7 +7128,7 @@
         <v>5543725</v>
       </c>
       <c r="J162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -7170,7 +7170,7 @@
         <v>1015421</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -7212,7 +7212,7 @@
         <v>13400000</v>
       </c>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -7254,7 +7254,7 @@
         <v>1391160</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166">
@@ -7296,7 +7296,7 @@
         <v>20093064</v>
       </c>
       <c r="J166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -7338,7 +7338,7 @@
         <v>1535880</v>
       </c>
       <c r="J167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -7422,7 +7422,7 @@
         <v>8193029</v>
       </c>
       <c r="J169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -7502,7 +7502,7 @@
         <v>22970500</v>
       </c>
       <c r="J171" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -7544,7 +7544,7 @@
         <v>947276</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -7626,7 +7626,7 @@
         <v>947276</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -7668,7 +7668,7 @@
         <v>1276000</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -7710,7 +7710,7 @@
         <v>19689000</v>
       </c>
       <c r="J176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -7870,7 +7870,7 @@
         <v>5000000</v>
       </c>
       <c r="J180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -7912,7 +7912,7 @@
         <v>14260870</v>
       </c>
       <c r="J181" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182">
@@ -7954,7 +7954,7 @@
         <v>2100000</v>
       </c>
       <c r="J182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7996,7 +7996,7 @@
         <v>2500000</v>
       </c>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -8038,7 +8038,7 @@
         <v>6500000</v>
       </c>
       <c r="J184" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -8080,7 +8080,7 @@
         <v>2170465</v>
       </c>
       <c r="J185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -8122,7 +8122,7 @@
         <v>111444</v>
       </c>
       <c r="J186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -8164,7 +8164,7 @@
         <v>1252440</v>
       </c>
       <c r="J187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -8206,7 +8206,7 @@
         <v>2891760</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -8332,7 +8332,7 @@
         <v>16000000</v>
       </c>
       <c r="J191" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -8374,7 +8374,7 @@
         <v>600000</v>
       </c>
       <c r="J192" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -8416,7 +8416,7 @@
         <v>13913044</v>
       </c>
       <c r="J193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -8458,7 +8458,7 @@
         <v>2841960</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -8500,7 +8500,7 @@
         <v>6270000</v>
       </c>
       <c r="J195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -8542,7 +8542,7 @@
         <v>5000000</v>
       </c>
       <c r="J196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -8584,7 +8584,7 @@
         <v>3000000</v>
       </c>
       <c r="J197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -8626,7 +8626,7 @@
         <v>4050000</v>
       </c>
       <c r="J198" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -8668,7 +8668,7 @@
         <v>1007026</v>
       </c>
       <c r="J199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -8706,7 +8706,7 @@
         <v>10300000</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -8790,7 +8790,7 @@
         <v>8000000</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -8832,7 +8832,7 @@
         <v>4000000</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -8916,7 +8916,7 @@
         <v>211744</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -8954,7 +8954,7 @@
         <v>4000000</v>
       </c>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -8992,7 +8992,7 @@
         <v>4394225</v>
       </c>
       <c r="J207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -9034,7 +9034,7 @@
         <v>1100000</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -9118,7 +9118,7 @@
         <v>2357760</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -9240,7 +9240,7 @@
         <v>1953960</v>
       </c>
       <c r="J213" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -9324,7 +9324,7 @@
         <v>2399040</v>
       </c>
       <c r="J215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -9366,7 +9366,7 @@
         <v>947276</v>
       </c>
       <c r="J216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -9408,7 +9408,7 @@
         <v>1662360</v>
       </c>
       <c r="J217" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218">
@@ -9572,7 +9572,7 @@
         <v>14700000</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -9614,7 +9614,7 @@
         <v>16407500</v>
       </c>
       <c r="J222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -9698,7 +9698,7 @@
         <v>845059</v>
       </c>
       <c r="J224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -9740,7 +9740,7 @@
         <v>5152440</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -9782,7 +9782,7 @@
         <v>2109294</v>
       </c>
       <c r="J226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -9824,7 +9824,7 @@
         <v>6600000</v>
       </c>
       <c r="J227" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -9866,7 +9866,7 @@
         <v>1733040</v>
       </c>
       <c r="J228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -9908,7 +9908,7 @@
         <v>1449000</v>
       </c>
       <c r="J229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -9950,7 +9950,7 @@
         <v>4290000</v>
       </c>
       <c r="J230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -9992,7 +9992,7 @@
         <v>1100602</v>
       </c>
       <c r="J231" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232">
@@ -10034,7 +10034,7 @@
         <v>3950313</v>
       </c>
       <c r="J232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -10076,7 +10076,7 @@
         <v>4053446</v>
       </c>
       <c r="J233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -10202,7 +10202,7 @@
         <v>1270964</v>
       </c>
       <c r="J236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -10278,7 +10278,7 @@
         <v>8333334</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -10316,7 +10316,7 @@
         <v>5200000</v>
       </c>
       <c r="J239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -10358,7 +10358,7 @@
         <v>15361500</v>
       </c>
       <c r="J240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
@@ -10442,7 +10442,7 @@
         <v>947276</v>
       </c>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -10484,7 +10484,7 @@
         <v>5378974</v>
       </c>
       <c r="J243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -10526,7 +10526,7 @@
         <v>8193030</v>
       </c>
       <c r="J244" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
@@ -10568,7 +10568,7 @@
         <v>306527</v>
       </c>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
@@ -10690,7 +10690,7 @@
         <v>1242720</v>
       </c>
       <c r="J248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -10732,7 +10732,7 @@
         <v>1646400</v>
       </c>
       <c r="J249" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -10858,7 +10858,7 @@
         <v>1000000</v>
       </c>
       <c r="J252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -10896,7 +10896,7 @@
         <v>22359364</v>
       </c>
       <c r="J253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -10980,7 +10980,7 @@
         <v>3189794</v>
       </c>
       <c r="J255" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -11018,7 +11018,7 @@
         <v>2288205</v>
       </c>
       <c r="J256" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -11056,7 +11056,7 @@
         <v>947276</v>
       </c>
       <c r="J257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -11098,7 +11098,7 @@
         <v>947276</v>
       </c>
       <c r="J258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -11140,7 +11140,7 @@
         <v>1404600</v>
       </c>
       <c r="J259" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
@@ -11182,7 +11182,7 @@
         <v>5158539</v>
       </c>
       <c r="J260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -11266,7 +11266,7 @@
         <v>3542500</v>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -11350,7 +11350,7 @@
         <v>9588426</v>
       </c>
       <c r="J264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -11392,7 +11392,7 @@
         <v>700902</v>
       </c>
       <c r="J265" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -11470,7 +11470,7 @@
         <v>19688000</v>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -11512,7 +11512,7 @@
         <v>845059</v>
       </c>
       <c r="J268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -11554,7 +11554,7 @@
         <v>1201440</v>
       </c>
       <c r="J269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -11596,7 +11596,7 @@
         <v>1230840</v>
       </c>
       <c r="J270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -11760,7 +11760,7 @@
         <v>9000000</v>
       </c>
       <c r="J274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276">
@@ -11842,7 +11842,7 @@
         <v>5464000</v>
       </c>
       <c r="J276" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -11880,7 +11880,7 @@
         <v>4389607</v>
       </c>
       <c r="J277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -11960,7 +11960,7 @@
         <v>9213483</v>
       </c>
       <c r="J279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -12002,7 +12002,7 @@
         <v>1100602</v>
       </c>
       <c r="J280" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
@@ -12086,7 +12086,7 @@
         <v>2850000</v>
       </c>
       <c r="J282" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -12128,7 +12128,7 @@
         <v>7070730</v>
       </c>
       <c r="J283" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284">
@@ -12212,7 +12212,7 @@
         <v>1164858</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -12254,7 +12254,7 @@
         <v>845059</v>
       </c>
       <c r="J286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -12296,7 +12296,7 @@
         <v>10734586</v>
       </c>
       <c r="J287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -12380,7 +12380,7 @@
         <v>1320000</v>
       </c>
       <c r="J289" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="290">
@@ -12506,7 +12506,7 @@
         <v>10595507</v>
       </c>
       <c r="J292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -12548,7 +12548,7 @@
         <v>55722</v>
       </c>
       <c r="J293" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294">
@@ -12586,7 +12586,7 @@
         <v>947276</v>
       </c>
       <c r="J294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -12670,7 +12670,7 @@
         <v>19689000</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -12712,7 +12712,7 @@
         <v>1142880</v>
       </c>
       <c r="J297" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -12754,7 +12754,7 @@
         <v>947276</v>
       </c>
       <c r="J298" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -12792,7 +12792,7 @@
         <v>7500000</v>
       </c>
       <c r="J299" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -12834,7 +12834,7 @@
         <v>5250000</v>
       </c>
       <c r="J300" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -12872,7 +12872,7 @@
         <v>2814000</v>
       </c>
       <c r="J301" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -12914,7 +12914,7 @@
         <v>10000000</v>
       </c>
       <c r="J302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -12956,7 +12956,7 @@
         <v>16407500</v>
       </c>
       <c r="J303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -12994,7 +12994,7 @@
         <v>1200000</v>
       </c>
       <c r="J304" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -13036,7 +13036,7 @@
         <v>200600</v>
       </c>
       <c r="J305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -13120,7 +13120,7 @@
         <v>3578947</v>
       </c>
       <c r="J307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -13158,7 +13158,7 @@
         <v>13437500</v>
       </c>
       <c r="J308" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
@@ -13200,7 +13200,7 @@
         <v>525093</v>
       </c>
       <c r="J309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -13242,7 +13242,7 @@
         <v>1499187</v>
       </c>
       <c r="J310" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -13284,7 +13284,7 @@
         <v>2000000</v>
       </c>
       <c r="J311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -13368,7 +13368,7 @@
         <v>2854940</v>
       </c>
       <c r="J313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -13452,7 +13452,7 @@
         <v>1000000</v>
       </c>
       <c r="J315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -13494,7 +13494,7 @@
         <v>5746479</v>
       </c>
       <c r="J316" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -13578,7 +13578,7 @@
         <v>947276</v>
       </c>
       <c r="J318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -13620,7 +13620,7 @@
         <v>525093</v>
       </c>
       <c r="J319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -13658,7 +13658,7 @@
         <v>1763400</v>
       </c>
       <c r="J320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -13738,7 +13738,7 @@
         <v>4000000</v>
       </c>
       <c r="J322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -13776,7 +13776,7 @@
         <v>9756250</v>
       </c>
       <c r="J323" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -13814,7 +13814,7 @@
         <v>1000000</v>
       </c>
       <c r="J324" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -13856,7 +13856,7 @@
         <v>8000000</v>
       </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -13894,7 +13894,7 @@
         <v>13125306</v>
       </c>
       <c r="J326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -13936,7 +13936,7 @@
         <v>947276</v>
       </c>
       <c r="J327" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -14020,7 +14020,7 @@
         <v>947276</v>
       </c>
       <c r="J329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -14062,7 +14062,7 @@
         <v>525093</v>
       </c>
       <c r="J330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331">
@@ -14104,7 +14104,7 @@
         <v>6110034</v>
       </c>
       <c r="J331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -14142,7 +14142,7 @@
         <v>13500000</v>
       </c>
       <c r="J332" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -14184,7 +14184,7 @@
         <v>2612520</v>
       </c>
       <c r="J333" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -14226,7 +14226,7 @@
         <v>6331404</v>
       </c>
       <c r="J334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -14268,7 +14268,7 @@
         <v>3034356</v>
       </c>
       <c r="J335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -14310,7 +14310,7 @@
         <v>5675000</v>
       </c>
       <c r="J336" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -14352,7 +14352,7 @@
         <v>2139000</v>
       </c>
       <c r="J337" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -14394,7 +14394,7 @@
         <v>12000000</v>
       </c>
       <c r="J338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -14478,7 +14478,7 @@
         <v>4204200</v>
       </c>
       <c r="J340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -14520,7 +14520,7 @@
         <v>22192730</v>
       </c>
       <c r="J341" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -14562,7 +14562,7 @@
         <v>10151612</v>
       </c>
       <c r="J342" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -14600,7 +14600,7 @@
         <v>14783000</v>
       </c>
       <c r="J343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -14638,7 +14638,7 @@
         <v>947276</v>
       </c>
       <c r="J344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -14680,7 +14680,7 @@
         <v>2854940</v>
       </c>
       <c r="J345" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -14722,7 +14722,7 @@
         <v>261894</v>
       </c>
       <c r="J346" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347">
@@ -14764,7 +14764,7 @@
         <v>845059</v>
       </c>
       <c r="J347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -14806,7 +14806,7 @@
         <v>5543725</v>
       </c>
       <c r="J348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -14848,7 +14848,7 @@
         <v>525093</v>
       </c>
       <c r="J349" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -14886,7 +14886,7 @@
         <v>947276</v>
       </c>
       <c r="J350" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -14928,7 +14928,7 @@
         <v>20000000</v>
       </c>
       <c r="J351" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -15052,7 +15052,7 @@
         <v>2481720</v>
       </c>
       <c r="J354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -15088,7 +15088,7 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
@@ -15130,7 +15130,7 @@
         <v>947276</v>
       </c>
       <c r="J356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -15168,7 +15168,7 @@
         <v>2288205</v>
       </c>
       <c r="J357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -15210,7 +15210,7 @@
         <v>4171680</v>
       </c>
       <c r="J358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -15248,7 +15248,7 @@
         <v>3741480</v>
       </c>
       <c r="J359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -15286,7 +15286,7 @@
         <v>7900000</v>
       </c>
       <c r="J360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -15324,7 +15324,7 @@
         <v>8344497</v>
       </c>
       <c r="J361" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -15408,7 +15408,7 @@
         <v>1294440</v>
       </c>
       <c r="J363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -15450,7 +15450,7 @@
         <v>2380593</v>
       </c>
       <c r="J364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -15534,7 +15534,7 @@
         <v>2505720</v>
       </c>
       <c r="J366" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367">
@@ -15618,7 +15618,7 @@
         <v>11250000</v>
       </c>
       <c r="J368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -15660,7 +15660,7 @@
         <v>5000000</v>
       </c>
       <c r="J369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -15702,7 +15702,7 @@
         <v>4000000</v>
       </c>
       <c r="J370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -15744,7 +15744,7 @@
         <v>5694674</v>
       </c>
       <c r="J371" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -15786,7 +15786,7 @@
         <v>4375000</v>
       </c>
       <c r="J372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -15828,7 +15828,7 @@
         <v>561716</v>
       </c>
       <c r="J373" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -15870,7 +15870,7 @@
         <v>3300000</v>
       </c>
       <c r="J374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -15908,7 +15908,7 @@
         <v>11217391</v>
       </c>
       <c r="J375" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -15950,7 +15950,7 @@
         <v>273038</v>
       </c>
       <c r="J376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -15988,7 +15988,7 @@
         <v>13000000</v>
       </c>
       <c r="J377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -16114,7 +16114,7 @@
         <v>4662960</v>
       </c>
       <c r="J380" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -16156,7 +16156,7 @@
         <v>2170465</v>
       </c>
       <c r="J381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -16198,7 +16198,7 @@
         <v>1100602</v>
       </c>
       <c r="J382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -16240,7 +16240,7 @@
         <v>200600</v>
       </c>
       <c r="J383" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384">
@@ -16324,7 +16324,7 @@
         <v>2814000</v>
       </c>
       <c r="J385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -16366,7 +16366,7 @@
         <v>3000000</v>
       </c>
       <c r="J386" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -16450,7 +16450,7 @@
         <v>10449438</v>
       </c>
       <c r="J388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -16530,7 +16530,7 @@
         <v>14000000</v>
       </c>
       <c r="J390" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -16610,7 +16610,7 @@
         <v>1300000</v>
       </c>
       <c r="J392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -16648,7 +16648,7 @@
         <v>1709719</v>
       </c>
       <c r="J393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394">
@@ -16728,7 +16728,7 @@
         <v>3102240</v>
       </c>
       <c r="J395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -16770,7 +16770,7 @@
         <v>4345000</v>
       </c>
       <c r="J396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -16808,7 +16808,7 @@
         <v>1842000</v>
       </c>
       <c r="J397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -16850,7 +16850,7 @@
         <v>258489</v>
       </c>
       <c r="J398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -16924,7 +16924,7 @@
         <v>3950001</v>
       </c>
       <c r="J400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -16966,7 +16966,7 @@
         <v>1474440</v>
       </c>
       <c r="J401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -17088,7 +17088,7 @@
         <v>2148360</v>
       </c>
       <c r="J404" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405">
@@ -17130,7 +17130,7 @@
         <v>2056920</v>
       </c>
       <c r="J405" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -17172,7 +17172,7 @@
         <v>1938840</v>
       </c>
       <c r="J406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -17252,7 +17252,7 @@
         <v>947276</v>
       </c>
       <c r="J408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -17290,7 +17290,7 @@
         <v>12700000</v>
       </c>
       <c r="J409" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -17328,7 +17328,7 @@
         <v>1149500</v>
       </c>
       <c r="J410" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -17452,7 +17452,7 @@
         <v>5758680</v>
       </c>
       <c r="J413" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -17494,7 +17494,7 @@
         <v>2279040</v>
       </c>
       <c r="J414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -17536,7 +17536,7 @@
         <v>3750000</v>
       </c>
       <c r="J415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -17578,7 +17578,7 @@
         <v>20158622</v>
       </c>
       <c r="J416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -17620,7 +17620,7 @@
         <v>3135000</v>
       </c>
       <c r="J417" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418">
@@ -17662,7 +17662,7 @@
         <v>1140240</v>
       </c>
       <c r="J418" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -17700,7 +17700,7 @@
         <v>12250000</v>
       </c>
       <c r="J419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -17742,7 +17742,7 @@
         <v>16407500</v>
       </c>
       <c r="J420" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
@@ -17784,7 +17784,7 @@
         <v>1463040</v>
       </c>
       <c r="J421" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422">
@@ -17826,7 +17826,7 @@
         <v>222888</v>
       </c>
       <c r="J422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -17868,7 +17868,7 @@
         <v>3344000</v>
       </c>
       <c r="J423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -17910,7 +17910,7 @@
         <v>2021520</v>
       </c>
       <c r="J424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -17952,7 +17952,7 @@
         <v>1210800</v>
       </c>
       <c r="J425" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426">
@@ -17994,7 +17994,7 @@
         <v>4500000</v>
       </c>
       <c r="J426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -18036,7 +18036,7 @@
         <v>5138430</v>
       </c>
       <c r="J427" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -18120,7 +18120,7 @@
         <v>525093</v>
       </c>
       <c r="J429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -18162,7 +18162,7 @@
         <v>8042895</v>
       </c>
       <c r="J430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431">
@@ -18246,7 +18246,7 @@
         <v>947276</v>
       </c>
       <c r="J432" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433">
@@ -18330,7 +18330,7 @@
         <v>2894059</v>
       </c>
       <c r="J434" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -18372,7 +18372,7 @@
         <v>6000000</v>
       </c>
       <c r="J435" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -18414,7 +18414,7 @@
         <v>5016000</v>
       </c>
       <c r="J436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -18456,7 +18456,7 @@
         <v>3075880</v>
       </c>
       <c r="J437" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -18498,7 +18498,7 @@
         <v>4236287</v>
       </c>
       <c r="J438" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439">
@@ -18540,7 +18540,7 @@
         <v>2525160</v>
       </c>
       <c r="J439" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440">
@@ -18582,7 +18582,7 @@
         <v>525093</v>
       </c>
       <c r="J440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -18624,7 +18624,7 @@
         <v>1415520</v>
       </c>
       <c r="J441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -18666,7 +18666,7 @@
         <v>2854940</v>
       </c>
       <c r="J442" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -18708,7 +18708,7 @@
         <v>2637720</v>
       </c>
       <c r="J443" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -18750,7 +18750,7 @@
         <v>4775000</v>
       </c>
       <c r="J444" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -18834,7 +18834,7 @@
         <v>9463484</v>
       </c>
       <c r="J446" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="447">
@@ -18872,7 +18872,7 @@
         <v>3777720</v>
       </c>
       <c r="J447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -18952,7 +18952,7 @@
         <v>1175880</v>
       </c>
       <c r="J449" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -18994,7 +18994,7 @@
         <v>15409570</v>
       </c>
       <c r="J450" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451">
@@ -19158,7 +19158,7 @@
         <v>2239800</v>
       </c>
       <c r="J454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -19200,7 +19200,7 @@
         <v>2433333</v>
       </c>
       <c r="J455" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -19238,7 +19238,7 @@
         <v>900000</v>
       </c>
       <c r="J456" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -19318,7 +19318,7 @@
         <v>947276</v>
       </c>
       <c r="J458" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -19332,7 +19332,7 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
